--- a/F1/Tempi.xlsx
+++ b/F1/Tempi.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matteo.scuri\Downloads\diaryDome\F1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46C0F0A-BC21-47B2-B275-132ACAEDDF2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20055" windowHeight="8460"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complessivo" sheetId="1" r:id="rId1"/>
@@ -22,7 +28,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Complessivo!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -110,8 +124,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,15 +175,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -211,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,9 +265,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,6 +317,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,20 +510,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -476,283 +534,284 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2">
-        <f ca="1">INDIRECT(A2&amp;"!L3")</f>
+        <f t="shared" ref="B2:B11" ca="1" si="0">INDIRECT(A2&amp;"!L3")</f>
         <v>2509747</v>
       </c>
       <c r="C2">
-        <f ca="1">FLOOR(B2/60000,1)</f>
+        <f t="shared" ref="C2:C11" ca="1" si="1">FLOOR(B2/60000,1)</f>
         <v>41</v>
       </c>
       <c r="D2">
-        <f ca="1">FLOOR((B2-(C2*60000))/1000,1)</f>
+        <f t="shared" ref="D2:D11" ca="1" si="2">FLOOR((B2-(C2*60000))/1000,1)</f>
         <v>49</v>
       </c>
       <c r="E2">
-        <f ca="1">B2-C2*60000-D2*1000</f>
+        <f t="shared" ref="E2:E11" ca="1" si="3">B2-C2*60000-D2*1000</f>
         <v>747</v>
       </c>
       <c r="F2" t="str">
-        <f ca="1">CONCATENATE(IF(C2&lt;10,"0",""), C2,":", IF(D2&lt;10,"0",""),D2,":",IF(E2&lt;100,IF(E2&lt;10,"00","0"),""),E2)</f>
+        <f t="shared" ref="F2:F11" ca="1" si="4">CONCATENATE(IF(C2&lt;10,"0",""), C2,":", IF(D2&lt;10,"0",""),D2,":",IF(E2&lt;100,IF(E2&lt;10,"00","0"),""),E2)</f>
         <v>41:49:747</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <f ca="1">INDIRECT(A3&amp;"!L3")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="C3">
-        <f ca="1">FLOOR(B3/60000,1)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D3">
-        <f ca="1">FLOOR((B3-(C3*60000))/1000,1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E3">
-        <f ca="1">B3-C3*60000-D3*1000</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f ca="1">CONCATENATE(IF(C3&lt;10,"0",""), C3,":", IF(D3&lt;10,"0",""),D3,":",IF(E3&lt;100,IF(E3&lt;10,"00","0"),""),E3)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>00:00:000</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4">
-        <f ca="1">INDIRECT(A4&amp;"!L3")</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>402751</v>
       </c>
       <c r="C4">
-        <f ca="1">FLOOR(B4/60000,1)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="D4">
-        <f ca="1">FLOOR((B4-(C4*60000))/1000,1)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
       </c>
       <c r="E4">
-        <f ca="1">B4-C4*60000-D4*1000</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>751</v>
       </c>
       <c r="F4" t="str">
-        <f ca="1">CONCATENATE(IF(C4&lt;10,"0",""), C4,":", IF(D4&lt;10,"0",""),D4,":",IF(E4&lt;100,IF(E4&lt;10,"00","0"),""),E4)</f>
-        <v>00:00:000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <f t="shared" ca="1" si="4"/>
+        <v>06:42:751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5">
-        <f ca="1">INDIRECT(A5&amp;"!L3")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="C5">
-        <f ca="1">FLOOR(B5/60000,1)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D5">
-        <f ca="1">FLOOR((B5-(C5*60000))/1000,1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f ca="1">B5-C5*60000-D5*1000</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F5" t="str">
-        <f ca="1">CONCATENATE(IF(C5&lt;10,"0",""), C5,":", IF(D5&lt;10,"0",""),D5,":",IF(E5&lt;100,IF(E5&lt;10,"00","0"),""),E5)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>00:00:000</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6">
-        <f ca="1">INDIRECT(A6&amp;"!L3")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="C6">
-        <f ca="1">FLOOR(B6/60000,1)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D6">
-        <f ca="1">FLOOR((B6-(C6*60000))/1000,1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f ca="1">B6-C6*60000-D6*1000</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F6" t="str">
-        <f ca="1">CONCATENATE(IF(C6&lt;10,"0",""), C6,":", IF(D6&lt;10,"0",""),D6,":",IF(E6&lt;100,IF(E6&lt;10,"00","0"),""),E6)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>00:00:000</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7">
-        <f ca="1">INDIRECT(A7&amp;"!L3")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="C7">
-        <f ca="1">FLOOR(B7/60000,1)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D7">
-        <f ca="1">FLOOR((B7-(C7*60000))/1000,1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f ca="1">B7-C7*60000-D7*1000</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F7" t="str">
-        <f ca="1">CONCATENATE(IF(C7&lt;10,"0",""), C7,":", IF(D7&lt;10,"0",""),D7,":",IF(E7&lt;100,IF(E7&lt;10,"00","0"),""),E7)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>00:00:000</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8">
-        <f ca="1">INDIRECT(A8&amp;"!L3")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="C8">
-        <f ca="1">FLOOR(B8/60000,1)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f ca="1">FLOOR((B8-(C8*60000))/1000,1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f ca="1">B8-C8*60000-D8*1000</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F8" t="str">
-        <f ca="1">CONCATENATE(IF(C8&lt;10,"0",""), C8,":", IF(D8&lt;10,"0",""),D8,":",IF(E8&lt;100,IF(E8&lt;10,"00","0"),""),E8)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>00:00:000</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9">
-        <f ca="1">INDIRECT(A9&amp;"!L3")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="C9">
-        <f ca="1">FLOOR(B9/60000,1)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f ca="1">FLOOR((B9-(C9*60000))/1000,1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f ca="1">B9-C9*60000-D9*1000</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F9" t="str">
-        <f ca="1">CONCATENATE(IF(C9&lt;10,"0",""), C9,":", IF(D9&lt;10,"0",""),D9,":",IF(E9&lt;100,IF(E9&lt;10,"00","0"),""),E9)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>00:00:000</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10">
-        <f ca="1">INDIRECT(A10&amp;"!L3")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="C10">
-        <f ca="1">FLOOR(B10/60000,1)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f ca="1">FLOOR((B10-(C10*60000))/1000,1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f ca="1">B10-C10*60000-D10*1000</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F10" t="str">
-        <f ca="1">CONCATENATE(IF(C10&lt;10,"0",""), C10,":", IF(D10&lt;10,"0",""),D10,":",IF(E10&lt;100,IF(E10&lt;10,"00","0"),""),E10)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>00:00:000</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11">
-        <f ca="1">INDIRECT(A11&amp;"!L3")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="C11">
-        <f ca="1">FLOOR(B11/60000,1)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f ca="1">FLOOR((B11-(C11*60000))/1000,1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f ca="1">B11-C11*60000-D11*1000</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F11" t="str">
-        <f ca="1">CONCATENATE(IF(C11&lt;10,"0",""), C11,":", IF(D11&lt;10,"0",""),D11,":",IF(E11&lt;100,IF(E11&lt;10,"00","0"),""),E11)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>00:00:000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1">
-    <sortState ref="A2:F11">
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
       <sortCondition descending="1" ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -772,7 +831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -783,7 +842,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -803,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -816,7 +875,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -829,7 +888,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -842,7 +901,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -855,7 +914,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -868,7 +927,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -881,7 +940,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -894,7 +953,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -905,7 +964,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -918,7 +977,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -931,7 +990,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -944,7 +1003,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -957,7 +1016,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5</v>
       </c>
@@ -970,7 +1029,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6</v>
       </c>
@@ -983,7 +1042,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>7</v>
       </c>
@@ -996,7 +1055,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1009,7 +1068,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1020,7 +1079,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1033,7 +1092,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1046,7 +1105,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1059,7 +1118,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1072,7 +1131,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1085,7 +1144,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1098,7 +1157,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7</v>
       </c>
@@ -1111,7 +1170,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -1124,7 +1183,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1135,7 +1194,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1148,7 +1207,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1161,7 +1220,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1174,7 +1233,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1187,7 +1246,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>5</v>
       </c>
@@ -1200,7 +1259,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>6</v>
       </c>
@@ -1213,7 +1272,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>7</v>
       </c>
@@ -1226,7 +1285,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>8</v>
       </c>
@@ -1239,7 +1298,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -1250,7 +1309,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1263,7 +1322,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1276,7 +1335,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1289,7 +1348,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1302,7 +1361,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1315,7 +1374,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>6</v>
       </c>
@@ -1328,7 +1387,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>7</v>
       </c>
@@ -1341,7 +1400,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>8</v>
       </c>
@@ -1363,26 +1422,27 @@
     <mergeCell ref="A38:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1402,7 +1462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1413,7 +1473,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1433,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1446,7 +1506,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1459,7 +1519,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1472,7 +1532,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1485,7 +1545,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1498,7 +1558,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1511,7 +1571,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1524,7 +1584,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1535,7 +1595,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1548,7 +1608,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1561,7 +1621,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1574,7 +1634,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1587,7 +1647,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1600,7 +1660,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1613,7 +1673,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>7</v>
       </c>
@@ -1626,7 +1686,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1639,7 +1699,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1650,7 +1710,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1663,7 +1723,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1676,7 +1736,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1689,7 +1749,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1702,7 +1762,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1715,7 +1775,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1728,7 +1788,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7</v>
       </c>
@@ -1741,7 +1801,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -1754,7 +1814,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1765,7 +1825,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1778,7 +1838,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1791,7 +1851,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1804,7 +1864,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1817,7 +1877,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>5</v>
       </c>
@@ -1830,7 +1890,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>6</v>
       </c>
@@ -1843,7 +1903,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>7</v>
       </c>
@@ -1856,7 +1916,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>8</v>
       </c>
@@ -1869,7 +1929,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -1880,7 +1940,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1893,7 +1953,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1906,7 +1966,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1919,7 +1979,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1932,7 +1992,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1945,7 +2005,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>6</v>
       </c>
@@ -1958,7 +2018,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>7</v>
       </c>
@@ -1971,7 +2031,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>8</v>
       </c>
@@ -1993,26 +2053,27 @@
     <mergeCell ref="A38:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2032,7 +2093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2043,7 +2104,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2063,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2076,7 +2137,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2089,7 +2150,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2102,7 +2163,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2115,7 +2176,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2128,7 +2189,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2141,7 +2202,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2154,7 +2215,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2165,7 +2226,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2178,7 +2239,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2191,7 +2252,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2204,7 +2265,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2217,7 +2278,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5</v>
       </c>
@@ -2230,7 +2291,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6</v>
       </c>
@@ -2243,7 +2304,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>7</v>
       </c>
@@ -2256,7 +2317,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
@@ -2269,7 +2330,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -2280,7 +2341,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2293,7 +2354,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2306,7 +2367,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2319,7 +2380,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4</v>
       </c>
@@ -2332,7 +2393,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2345,7 +2406,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>6</v>
       </c>
@@ -2358,7 +2419,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7</v>
       </c>
@@ -2371,7 +2432,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -2384,7 +2445,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -2395,7 +2456,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2408,7 +2469,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2</v>
       </c>
@@ -2421,7 +2482,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2434,7 +2495,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2447,7 +2508,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>5</v>
       </c>
@@ -2460,7 +2521,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>6</v>
       </c>
@@ -2473,7 +2534,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>7</v>
       </c>
@@ -2486,7 +2547,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>8</v>
       </c>
@@ -2499,7 +2560,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -2510,7 +2571,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2523,7 +2584,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2</v>
       </c>
@@ -2536,7 +2597,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2549,7 +2610,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4</v>
       </c>
@@ -2562,7 +2623,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2575,7 +2636,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>6</v>
       </c>
@@ -2588,7 +2649,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>7</v>
       </c>
@@ -2601,7 +2662,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>8</v>
       </c>
@@ -2628,22 +2689,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2663,7 +2724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2674,13 +2735,22 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>478</v>
       </c>
       <c r="F3">
         <f>D3+C3*1000+B3*60000+IF(E3="X",5000,0)</f>
-        <v>0</v>
+        <v>67478</v>
       </c>
       <c r="G3" t="str">
         <f>IF(OR(MIN(F$3:F$10)=F3,MAX(F$3:F$10)=F3),"",F3)</f>
@@ -2691,101 +2761,164 @@
       </c>
       <c r="L3">
         <f>SUM(G:G)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>402751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>389</v>
+      </c>
       <c r="F4">
         <f t="shared" ref="F4:F10" si="0">D4+C4*1000+B4*60000+IF(E4="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" t="str">
+        <v>67389</v>
+      </c>
+      <c r="G4">
         <f t="shared" ref="G4:G10" si="1">IF(OR(MIN(F$3:F$10)=F4,MAX(F$3:F$10)=F4),"",F4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>67389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>804</v>
+      </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66804</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>292</v>
+      </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" t="str">
+        <v>67292</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>67292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>865</v>
+      </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" t="str">
+        <v>66865</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>66865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>79</v>
+      </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" t="str">
+        <v>67079</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>67079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>246</v>
+      </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" t="str">
+        <v>67246</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>67246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>880</v>
+      </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" t="str">
+        <v>66880</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>66880</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2796,7 +2929,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2809,7 +2942,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2822,7 +2955,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2835,7 +2968,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2848,7 +2981,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5</v>
       </c>
@@ -2861,7 +2994,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6</v>
       </c>
@@ -2874,7 +3007,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>7</v>
       </c>
@@ -2887,7 +3020,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
@@ -2900,7 +3033,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -2911,7 +3044,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2924,7 +3057,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2937,7 +3070,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2950,7 +3083,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4</v>
       </c>
@@ -2963,7 +3096,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2976,7 +3109,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>6</v>
       </c>
@@ -2989,7 +3122,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7</v>
       </c>
@@ -3002,7 +3135,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -3015,7 +3148,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -3026,7 +3159,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3039,7 +3172,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2</v>
       </c>
@@ -3052,7 +3185,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3065,7 +3198,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3078,7 +3211,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>5</v>
       </c>
@@ -3091,7 +3224,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>6</v>
       </c>
@@ -3104,7 +3237,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>7</v>
       </c>
@@ -3117,7 +3250,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>8</v>
       </c>
@@ -3130,7 +3263,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -3141,7 +3274,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3154,7 +3287,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2</v>
       </c>
@@ -3167,7 +3300,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3</v>
       </c>
@@ -3180,7 +3313,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4</v>
       </c>
@@ -3193,7 +3326,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5</v>
       </c>
@@ -3206,7 +3339,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>6</v>
       </c>
@@ -3219,7 +3352,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>7</v>
       </c>
@@ -3232,7 +3365,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>8</v>
       </c>
@@ -3254,26 +3387,27 @@
     <mergeCell ref="A38:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3293,7 +3427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3304,7 +3438,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3336,7 +3470,7 @@
         <v>2509747</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3358,7 +3492,7 @@
         <v>67031</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3380,7 +3514,7 @@
         <v>67328</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3402,7 +3536,7 @@
         <v>67146</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3424,7 +3558,7 @@
         <v>66696</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3446,7 +3580,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3468,7 +3602,7 @@
         <v>66735</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3490,7 +3624,7 @@
         <v>66923</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3501,7 +3635,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3523,7 +3657,7 @@
         <v>90635</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3545,7 +3679,7 @@
         <v>90521</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3567,7 +3701,7 @@
         <v>90395</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -3589,7 +3723,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5</v>
       </c>
@@ -3611,7 +3745,7 @@
         <v>90420</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6</v>
       </c>
@@ -3636,7 +3770,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>7</v>
       </c>
@@ -3658,7 +3792,7 @@
         <v>90158</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
@@ -3680,7 +3814,7 @@
         <v>90030</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -3691,7 +3825,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3713,7 +3847,7 @@
         <v>95325</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3738,7 +3872,7 @@
         <v>94974</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -3760,7 +3894,7 @@
         <v>95001</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4</v>
       </c>
@@ -3782,7 +3916,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5</v>
       </c>
@@ -3804,7 +3938,7 @@
         <v>95236</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>6</v>
       </c>
@@ -3829,7 +3963,7 @@
         <v>95868</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7</v>
       </c>
@@ -3851,7 +3985,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -3873,7 +4007,7 @@
         <v>95125</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -3884,7 +4018,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3909,7 +4043,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2</v>
       </c>
@@ -3931,7 +4065,7 @@
         <v>91127</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3953,7 +4087,7 @@
         <v>91020</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3975,7 +4109,7 @@
         <v>91010</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>5</v>
       </c>
@@ -4000,7 +4134,7 @@
         <v>96237</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>6</v>
       </c>
@@ -4025,7 +4159,7 @@
         <v>96007</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>7</v>
       </c>
@@ -4047,7 +4181,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>8</v>
       </c>
@@ -4069,7 +4203,7 @@
         <v>91048</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -4080,7 +4214,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -4102,7 +4236,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2</v>
       </c>
@@ -4124,7 +4258,7 @@
         <v>72995</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3</v>
       </c>
@@ -4146,7 +4280,7 @@
         <v>73121</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4</v>
       </c>
@@ -4168,7 +4302,7 @@
         <v>72715</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5</v>
       </c>
@@ -4190,7 +4324,7 @@
         <v>72638</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>6</v>
       </c>
@@ -4212,7 +4346,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>7</v>
       </c>
@@ -4234,7 +4368,7 @@
         <v>73359</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>8</v>
       </c>
@@ -4268,26 +4402,27 @@
     <mergeCell ref="A38:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4307,7 +4442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4318,7 +4453,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4338,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4351,7 +4486,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4364,7 +4499,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4377,7 +4512,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4390,7 +4525,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4403,7 +4538,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4416,7 +4551,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4429,7 +4564,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -4440,7 +4575,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4453,7 +4588,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -4466,7 +4601,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4479,7 +4614,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -4492,7 +4627,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5</v>
       </c>
@@ -4505,7 +4640,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6</v>
       </c>
@@ -4518,7 +4653,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>7</v>
       </c>
@@ -4531,7 +4666,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
@@ -4544,7 +4679,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -4555,7 +4690,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4568,7 +4703,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
@@ -4581,7 +4716,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4594,7 +4729,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4</v>
       </c>
@@ -4607,7 +4742,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5</v>
       </c>
@@ -4620,7 +4755,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>6</v>
       </c>
@@ -4633,7 +4768,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7</v>
       </c>
@@ -4646,7 +4781,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -4659,7 +4794,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -4670,7 +4805,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4683,7 +4818,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2</v>
       </c>
@@ -4696,7 +4831,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4709,7 +4844,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4722,7 +4857,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>5</v>
       </c>
@@ -4735,7 +4870,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>6</v>
       </c>
@@ -4748,7 +4883,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>7</v>
       </c>
@@ -4761,7 +4896,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>8</v>
       </c>
@@ -4774,7 +4909,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -4785,7 +4920,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -4798,7 +4933,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2</v>
       </c>
@@ -4811,7 +4946,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3</v>
       </c>
@@ -4824,7 +4959,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4</v>
       </c>
@@ -4837,7 +4972,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5</v>
       </c>
@@ -4850,7 +4985,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>6</v>
       </c>
@@ -4863,7 +4998,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>7</v>
       </c>
@@ -4876,7 +5011,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>8</v>
       </c>
@@ -4898,26 +5033,27 @@
     <mergeCell ref="A38:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4937,7 +5073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4948,7 +5084,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4968,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4981,7 +5117,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4994,7 +5130,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5007,7 +5143,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5020,7 +5156,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5033,7 +5169,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5046,7 +5182,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5059,7 +5195,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -5070,7 +5206,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5083,7 +5219,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -5096,7 +5232,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5109,7 +5245,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -5122,7 +5258,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5</v>
       </c>
@@ -5135,7 +5271,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6</v>
       </c>
@@ -5148,7 +5284,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>7</v>
       </c>
@@ -5161,7 +5297,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
@@ -5174,7 +5310,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -5185,7 +5321,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5198,7 +5334,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
@@ -5211,7 +5347,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5224,7 +5360,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4</v>
       </c>
@@ -5237,7 +5373,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5</v>
       </c>
@@ -5250,7 +5386,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>6</v>
       </c>
@@ -5263,7 +5399,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7</v>
       </c>
@@ -5276,7 +5412,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -5289,7 +5425,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -5300,7 +5436,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
@@ -5313,7 +5449,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2</v>
       </c>
@@ -5326,7 +5462,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3</v>
       </c>
@@ -5339,7 +5475,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -5352,7 +5488,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>5</v>
       </c>
@@ -5365,7 +5501,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>6</v>
       </c>
@@ -5378,7 +5514,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>7</v>
       </c>
@@ -5391,7 +5527,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>8</v>
       </c>
@@ -5404,7 +5540,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -5415,7 +5551,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -5428,7 +5564,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2</v>
       </c>
@@ -5441,7 +5577,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3</v>
       </c>
@@ -5454,7 +5590,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4</v>
       </c>
@@ -5467,7 +5603,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5</v>
       </c>
@@ -5480,7 +5616,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>6</v>
       </c>
@@ -5493,7 +5629,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>7</v>
       </c>
@@ -5506,7 +5642,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>8</v>
       </c>
@@ -5528,26 +5664,27 @@
     <mergeCell ref="A38:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5567,7 +5704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5578,7 +5715,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5598,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5611,7 +5748,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5624,7 +5761,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5637,7 +5774,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5650,7 +5787,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5663,7 +5800,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5676,7 +5813,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5689,7 +5826,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -5700,7 +5837,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5713,7 +5850,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -5726,7 +5863,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5739,7 +5876,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -5752,7 +5889,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5</v>
       </c>
@@ -5765,7 +5902,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6</v>
       </c>
@@ -5778,7 +5915,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>7</v>
       </c>
@@ -5791,7 +5928,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
@@ -5804,7 +5941,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -5815,7 +5952,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5828,7 +5965,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
@@ -5841,7 +5978,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5854,7 +5991,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4</v>
       </c>
@@ -5867,7 +6004,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5</v>
       </c>
@@ -5880,7 +6017,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>6</v>
       </c>
@@ -5893,7 +6030,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7</v>
       </c>
@@ -5906,7 +6043,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -5919,7 +6056,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -5930,7 +6067,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
@@ -5943,7 +6080,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2</v>
       </c>
@@ -5956,7 +6093,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3</v>
       </c>
@@ -5969,7 +6106,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -5982,7 +6119,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>5</v>
       </c>
@@ -5995,7 +6132,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>6</v>
       </c>
@@ -6008,7 +6145,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>7</v>
       </c>
@@ -6021,7 +6158,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>8</v>
       </c>
@@ -6034,7 +6171,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -6045,7 +6182,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -6058,7 +6195,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2</v>
       </c>
@@ -6071,7 +6208,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3</v>
       </c>
@@ -6084,7 +6221,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4</v>
       </c>
@@ -6097,7 +6234,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5</v>
       </c>
@@ -6110,7 +6247,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>6</v>
       </c>
@@ -6123,7 +6260,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>7</v>
       </c>
@@ -6136,7 +6273,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>8</v>
       </c>
@@ -6158,26 +6295,27 @@
     <mergeCell ref="A38:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6197,7 +6335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -6208,7 +6346,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6228,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6241,7 +6379,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6254,7 +6392,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6267,7 +6405,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6280,7 +6418,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6293,7 +6431,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6306,7 +6444,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6319,7 +6457,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -6330,7 +6468,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -6343,7 +6481,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6356,7 +6494,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -6369,7 +6507,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -6382,7 +6520,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5</v>
       </c>
@@ -6395,7 +6533,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6</v>
       </c>
@@ -6408,7 +6546,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>7</v>
       </c>
@@ -6421,7 +6559,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
@@ -6434,7 +6572,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -6445,7 +6583,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6458,7 +6596,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
@@ -6471,7 +6609,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -6484,7 +6622,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4</v>
       </c>
@@ -6497,7 +6635,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5</v>
       </c>
@@ -6510,7 +6648,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>6</v>
       </c>
@@ -6523,7 +6661,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7</v>
       </c>
@@ -6536,7 +6674,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -6549,7 +6687,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -6560,7 +6698,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
@@ -6573,7 +6711,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2</v>
       </c>
@@ -6586,7 +6724,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3</v>
       </c>
@@ -6599,7 +6737,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -6612,7 +6750,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>5</v>
       </c>
@@ -6625,7 +6763,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>6</v>
       </c>
@@ -6638,7 +6776,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>7</v>
       </c>
@@ -6651,7 +6789,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>8</v>
       </c>
@@ -6664,7 +6802,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -6675,7 +6813,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -6688,7 +6826,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2</v>
       </c>
@@ -6701,7 +6839,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3</v>
       </c>
@@ -6714,7 +6852,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4</v>
       </c>
@@ -6727,7 +6865,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5</v>
       </c>
@@ -6740,7 +6878,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>6</v>
       </c>
@@ -6753,7 +6891,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>7</v>
       </c>
@@ -6766,7 +6904,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>8</v>
       </c>
@@ -6788,26 +6926,27 @@
     <mergeCell ref="A38:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6827,7 +6966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -6838,7 +6977,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6858,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6871,7 +7010,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6884,7 +7023,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6897,7 +7036,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6910,7 +7049,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6923,7 +7062,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6936,7 +7075,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6949,7 +7088,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -6960,7 +7099,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -6973,7 +7112,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6986,7 +7125,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
@@ -6999,7 +7138,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -7012,7 +7151,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5</v>
       </c>
@@ -7025,7 +7164,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6</v>
       </c>
@@ -7038,7 +7177,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>7</v>
       </c>
@@ -7051,7 +7190,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
@@ -7064,7 +7203,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -7075,7 +7214,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -7088,7 +7227,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
@@ -7101,7 +7240,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3</v>
       </c>
@@ -7114,7 +7253,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4</v>
       </c>
@@ -7127,7 +7266,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5</v>
       </c>
@@ -7140,7 +7279,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>6</v>
       </c>
@@ -7153,7 +7292,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7</v>
       </c>
@@ -7166,7 +7305,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -7179,7 +7318,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -7190,7 +7329,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
@@ -7203,7 +7342,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2</v>
       </c>
@@ -7216,7 +7355,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3</v>
       </c>
@@ -7229,7 +7368,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -7242,7 +7381,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>5</v>
       </c>
@@ -7255,7 +7394,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>6</v>
       </c>
@@ -7268,7 +7407,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>7</v>
       </c>
@@ -7281,7 +7420,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>8</v>
       </c>
@@ -7294,7 +7433,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -7305,7 +7444,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -7318,7 +7457,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2</v>
       </c>
@@ -7331,7 +7470,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>3</v>
       </c>
@@ -7344,7 +7483,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4</v>
       </c>
@@ -7357,7 +7496,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5</v>
       </c>
@@ -7370,7 +7509,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>6</v>
       </c>
@@ -7383,7 +7522,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>7</v>
       </c>
@@ -7396,7 +7535,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>8</v>
       </c>
@@ -7418,5 +7557,6 @@
     <mergeCell ref="A38:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/F1/Tempi.xlsx
+++ b/F1/Tempi.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matteo.scuri\Downloads\diaryDome\F1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46C0F0A-BC21-47B2-B275-132ACAEDDF2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Complessivo" sheetId="1" r:id="rId1"/>
@@ -28,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Complessivo!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -124,8 +118,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,7 +169,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -191,7 +185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -233,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,27 +259,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,24 +293,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,20 +468,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -534,260 +492,260 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f ca="1">INDIRECT(A2&amp;"!L3")</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f ca="1">FLOOR(B2/60000,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f ca="1">FLOOR((B2-(C2*60000))/1000,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f ca="1">B2-C2*60000-D2*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <f ca="1">CONCATENATE(IF(C2&lt;10,"0",""), C2,":", IF(D2&lt;10,"0",""),D2,":",IF(E2&lt;100,IF(E2&lt;10,"00","0"),""),E2)</f>
+        <v>00:00:000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <f ca="1">INDIRECT(A3&amp;"!L3")</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f ca="1">FLOOR(B3/60000,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f ca="1">FLOOR((B3-(C3*60000))/1000,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f ca="1">B3-C3*60000-D3*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <f ca="1">CONCATENATE(IF(C3&lt;10,"0",""), C3,":", IF(D3&lt;10,"0",""),D3,":",IF(E3&lt;100,IF(E3&lt;10,"00","0"),""),E3)</f>
+        <v>00:00:000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <f ca="1">INDIRECT(A4&amp;"!L3")</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f ca="1">FLOOR(B4/60000,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f ca="1">FLOOR((B4-(C4*60000))/1000,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f ca="1">B4-C4*60000-D4*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <f ca="1">CONCATENATE(IF(C4&lt;10,"0",""), C4,":", IF(D4&lt;10,"0",""),D4,":",IF(E4&lt;100,IF(E4&lt;10,"00","0"),""),E4)</f>
+        <v>00:00:000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <f ca="1">INDIRECT(A5&amp;"!L3")</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f ca="1">FLOOR(B5/60000,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f ca="1">FLOOR((B5-(C5*60000))/1000,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f ca="1">B5-C5*60000-D5*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <f ca="1">CONCATENATE(IF(C5&lt;10,"0",""), C5,":", IF(D5&lt;10,"0",""),D5,":",IF(E5&lt;100,IF(E5&lt;10,"00","0"),""),E5)</f>
+        <v>00:00:000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <f ca="1">INDIRECT(A6&amp;"!L3")</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f ca="1">FLOOR(B6/60000,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f ca="1">FLOOR((B6-(C6*60000))/1000,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f ca="1">B6-C6*60000-D6*1000</f>
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <f ca="1">CONCATENATE(IF(C6&lt;10,"0",""), C6,":", IF(D6&lt;10,"0",""),D6,":",IF(E6&lt;100,IF(E6&lt;10,"00","0"),""),E6)</f>
+        <v>00:00:000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <f ca="1">INDIRECT(A7&amp;"!L3")</f>
+        <v>408800</v>
+      </c>
+      <c r="C7">
+        <f ca="1">FLOOR(B7/60000,1)</f>
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f ca="1">FLOOR((B7-(C7*60000))/1000,1)</f>
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <f ca="1">B7-C7*60000-D7*1000</f>
+        <v>800</v>
+      </c>
+      <c r="F7" t="str">
+        <f ca="1">CONCATENATE(IF(C7&lt;10,"0",""), C7,":", IF(D7&lt;10,"0",""),D7,":",IF(E7&lt;100,IF(E7&lt;10,"00","0"),""),E7)</f>
+        <v>06:48:800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <f ca="1">INDIRECT(A8&amp;"!L3")</f>
+        <v>545341</v>
+      </c>
+      <c r="C8">
+        <f ca="1">FLOOR(B8/60000,1)</f>
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <f ca="1">FLOOR((B8-(C8*60000))/1000,1)</f>
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f ca="1">B8-C8*60000-D8*1000</f>
+        <v>341</v>
+      </c>
+      <c r="F8" t="str">
+        <f ca="1">CONCATENATE(IF(C8&lt;10,"0",""), C8,":", IF(D8&lt;10,"0",""),D8,":",IF(E8&lt;100,IF(E8&lt;10,"00","0"),""),E8)</f>
+        <v>09:05:341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <f ca="1">INDIRECT(A9&amp;"!L3")</f>
+        <v>2491495</v>
+      </c>
+      <c r="C9">
+        <f ca="1">FLOOR(B9/60000,1)</f>
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <f ca="1">FLOOR((B9-(C9*60000))/1000,1)</f>
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <f ca="1">B9-C9*60000-D9*1000</f>
+        <v>495</v>
+      </c>
+      <c r="F9" t="str">
+        <f ca="1">CONCATENATE(IF(C9&lt;10,"0",""), C9,":", IF(D9&lt;10,"0",""),D9,":",IF(E9&lt;100,IF(E9&lt;10,"00","0"),""),E9)</f>
+        <v>41:31:495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <f ca="1">INDIRECT(A10&amp;"!L3")</f>
+        <v>2505067</v>
+      </c>
+      <c r="C10">
+        <f ca="1">FLOOR(B10/60000,1)</f>
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <f ca="1">FLOOR((B10-(C10*60000))/1000,1)</f>
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <f ca="1">B10-C10*60000-D10*1000</f>
+        <v>67</v>
+      </c>
+      <c r="F10" t="str">
+        <f ca="1">CONCATENATE(IF(C10&lt;10,"0",""), C10,":", IF(D10&lt;10,"0",""),D10,":",IF(E10&lt;100,IF(E10&lt;10,"00","0"),""),E10)</f>
+        <v>41:45:067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
-        <f t="shared" ref="B2:B11" ca="1" si="0">INDIRECT(A2&amp;"!L3")</f>
+      <c r="B11">
+        <f ca="1">INDIRECT(A11&amp;"!L3")</f>
         <v>2509747</v>
       </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C11" ca="1" si="1">FLOOR(B2/60000,1)</f>
+      <c r="C11">
+        <f ca="1">FLOOR(B11/60000,1)</f>
         <v>41</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D11" ca="1" si="2">FLOOR((B2-(C2*60000))/1000,1)</f>
+      <c r="D11">
+        <f ca="1">FLOOR((B11-(C11*60000))/1000,1)</f>
         <v>49</v>
       </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E11" ca="1" si="3">B2-C2*60000-D2*1000</f>
+      <c r="E11">
+        <f ca="1">B11-C11*60000-D11*1000</f>
         <v>747</v>
       </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F11" ca="1" si="4">CONCATENATE(IF(C2&lt;10,"0",""), C2,":", IF(D2&lt;10,"0",""),D2,":",IF(E2&lt;100,IF(E2&lt;10,"00","0"),""),E2)</f>
+      <c r="F11" t="str">
+        <f ca="1">CONCATENATE(IF(C11&lt;10,"0",""), C11,":", IF(D11&lt;10,"0",""),D11,":",IF(E11&lt;100,IF(E11&lt;10,"00","0"),""),E11)</f>
         <v>41:49:747</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>00:00:000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>402751</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="3"/>
-        <v>751</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>06:42:751</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>00:00:000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>00:00:000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>00:00:000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>00:00:000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>00:00:000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>00:00:000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>00:00:000</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
-      <sortCondition descending="1" ref="B1"/>
+  <autoFilter ref="A1:F1">
+    <sortState ref="A2:F11">
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -796,22 +754,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D5"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -831,7 +789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,118 +800,190 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>980</v>
       </c>
       <c r="F3">
         <f>D3+C3*1000+B3*60000+IF(E3="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" t="str">
+        <v>66980</v>
+      </c>
+      <c r="G3">
         <f>IF(OR(MIN(F$3:F$10)=F3,MAX(F$3:F$10)=F3),"",F3)</f>
-        <v/>
+        <v>66980</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
       </c>
       <c r="L3">
         <f>SUM(G:G)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2491495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>319</v>
+      </c>
       <c r="F4">
         <f t="shared" ref="F4:F10" si="0">D4+C4*1000+B4*60000+IF(E4="X",5000,0)</f>
-        <v>0</v>
+        <v>67319</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G10" si="1">IF(OR(MIN(F$3:F$10)=F4,MAX(F$3:F$10)=F4),"",F4)</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>809</v>
+      </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" t="str">
+        <v>66809</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>281</v>
+      </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" t="str">
+        <v>67281</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>67281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>831</v>
+      </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" t="str">
+        <v>66831</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>66831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" t="str">
+        <v>67018</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>67018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>800</v>
+      </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66800</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>318</v>
+      </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" t="str">
+        <v>67318</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>67318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -964,111 +994,183 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>69</v>
       </c>
       <c r="F12">
         <f>D12+C12*1000+B12*60000+IF(E12="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" t="str">
+        <v>90069</v>
+      </c>
+      <c r="G12">
         <f>IF(OR(MIN(F$12:F$19)=F12,MAX(F$12:F$19)=F12),"",F12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>90069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>813</v>
+      </c>
       <c r="F13">
         <f t="shared" ref="F13:F19" si="2">D13+C13*1000+B13*60000+IF(E13="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" t="str">
+        <v>89813</v>
+      </c>
+      <c r="G13">
         <f t="shared" ref="G13:G19" si="3">IF(OR(MIN(F$12:F$19)=F13,MAX(F$12:F$19)=F13),"",F13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>89813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>127</v>
+      </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14" t="str">
+        <v>90127</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>90127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>4</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>385</v>
+      </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90385</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>5</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>878</v>
+      </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" t="str">
+        <v>89878</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>89878</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>6</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>920</v>
+      </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G17" t="str">
+        <v>89920</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>89920</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>7</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>224</v>
+      </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G18" t="str">
+        <v>90224</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>90224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>8</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>748</v>
+      </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>89748</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1079,111 +1181,183 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>35</v>
+      </c>
+      <c r="D21">
+        <v>55</v>
       </c>
       <c r="F21">
         <f>D21+C21*1000+B21*60000+IF(E21="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" t="str">
+        <v>95055</v>
+      </c>
+      <c r="G21">
         <f>IF(OR(MIN(F$21:F$28)=F21,MAX(F$21:F$28)=F21),"",F21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>95055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>2</v>
       </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>630</v>
+      </c>
       <c r="F22">
         <f t="shared" ref="F22:F28" si="4">D22+C22*1000+B22*60000+IF(E22="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" t="str">
+        <v>95630</v>
+      </c>
+      <c r="G22">
         <f t="shared" ref="G22:G28" si="5">IF(OR(MIN(F$21:F$28)=F22,MAX(F$21:F$28)=F22),"",F22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>95630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>3</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>34</v>
+      </c>
+      <c r="D23">
+        <v>809</v>
+      </c>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G23" t="str">
+        <v>94809</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>94809</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>4</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>157</v>
+      </c>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G24" t="str">
+        <v>95157</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>95157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>5</v>
       </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>682</v>
+      </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>95682</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>6</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>561</v>
+      </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G26" t="str">
+        <v>94561</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>94561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>7</v>
       </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>109</v>
+      </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G27" t="str">
+        <v>95109</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>95109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>8</v>
       </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>545</v>
+      </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>94545</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1194,111 +1368,183 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>1</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>692</v>
       </c>
       <c r="F30">
         <f>D30+C30*1000+B30*60000+IF(E30="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" t="str">
+        <v>90692</v>
+      </c>
+      <c r="G30">
         <f>IF(OR(MIN(F$30:F$37)=F30,MAX(F$30:F$37)=F30),"",F30)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>90692</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2</v>
       </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>558</v>
+      </c>
       <c r="F31">
         <f t="shared" ref="F31:F37" si="6">D31+C31*1000+B31*60000+IF(E31="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" t="str">
+        <v>90558</v>
+      </c>
+      <c r="G31">
         <f t="shared" ref="G31:G37" si="7">IF(OR(MIN(F$30:F$37)=F31,MAX(F$30:F$37)=F31),"",F31)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>90558</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>3</v>
       </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>378</v>
+      </c>
       <c r="F32">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>90378</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>4</v>
       </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>564</v>
+      </c>
       <c r="F33">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G33" t="str">
+        <v>90564</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>90564</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>5</v>
       </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>588</v>
+      </c>
       <c r="F34">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G34" t="str">
+        <v>90588</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>90588</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>6</v>
       </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>652</v>
+      </c>
       <c r="F35">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G35" t="str">
+        <v>90652</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>90652</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>7</v>
       </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>486</v>
+      </c>
       <c r="F36">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G36" t="str">
+        <v>90486</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>90486</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>8</v>
       </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>30</v>
+      </c>
+      <c r="D37">
+        <v>968</v>
+      </c>
       <c r="F37">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>90968</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -1309,108 +1555,180 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>1</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>529</v>
       </c>
       <c r="F39">
         <f>D39+C39*1000+B39*60000+IF(E39="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G39" t="str">
+        <v>72529</v>
+      </c>
+      <c r="G39">
         <f>IF(OR(MIN(F$39:F$46)=F39,MAX(F$39:F$46)=F39),"",F39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+        <v>72529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>2</v>
       </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>238</v>
+      </c>
       <c r="F40">
         <f t="shared" ref="F40:F46" si="8">D40+C40*1000+B40*60000+IF(E40="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" t="str">
+        <v>72238</v>
+      </c>
+      <c r="G40">
         <f t="shared" ref="G40:G46" si="9">IF(OR(MIN(F$39:F$46)=F40,MAX(F$39:F$46)=F40),"",F40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>72238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>3</v>
       </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>623</v>
+      </c>
       <c r="F41">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G41" t="str">
+        <v>72623</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+        <v>72623</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>4</v>
       </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>192</v>
+      </c>
       <c r="F42">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>72192</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>5</v>
       </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>455</v>
+      </c>
       <c r="F43">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G43" t="str">
+        <v>72455</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+        <v>72455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>6</v>
       </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>585</v>
+      </c>
       <c r="F44">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>84585</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>7</v>
       </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>579</v>
+      </c>
       <c r="F45">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G45" t="str">
+        <v>72579</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>72579</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>8</v>
       </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>942</v>
+      </c>
       <c r="F46">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G46" t="str">
+        <v>72942</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="9"/>
-        <v/>
+        <v>72942</v>
       </c>
     </row>
   </sheetData>
@@ -1427,22 +1745,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1462,7 +1780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1473,7 +1791,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1490,10 +1808,10 @@
       </c>
       <c r="L3">
         <f>SUM(G:G)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>545341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1506,7 +1824,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1519,7 +1837,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1532,7 +1850,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1545,7 +1863,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1558,7 +1876,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1571,7 +1889,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1584,7 +1902,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1595,111 +1913,183 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>553</v>
       </c>
       <c r="F12">
         <f>D12+C12*1000+B12*60000+IF(E12="X",5000,0)</f>
-        <v>0</v>
+        <v>91553</v>
       </c>
       <c r="G12" t="str">
         <f>IF(OR(MIN(F$12:F$19)=F12,MAX(F$12:F$19)=F12),"",F12)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>390</v>
+      </c>
       <c r="F13">
         <f t="shared" ref="F13:F19" si="2">D13+C13*1000+B13*60000+IF(E13="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" t="str">
+        <v>91390</v>
+      </c>
+      <c r="G13">
         <f t="shared" ref="G13:G19" si="3">IF(OR(MIN(F$12:F$19)=F13,MAX(F$12:F$19)=F13),"",F13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>91390</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>821</v>
+      </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14" t="str">
+        <v>90821</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>90821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>4</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>739</v>
+      </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" t="str">
+        <v>90739</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>90739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>5</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>729</v>
+      </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" t="str">
+        <v>90729</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>90729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>6</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>675</v>
+      </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90675</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>7</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>985</v>
+      </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G18" t="str">
+        <v>90985</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>90985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>8</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>677</v>
+      </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G19" t="str">
+        <v>90677</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>90677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1710,7 +2100,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1723,7 +2113,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1736,7 +2126,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1749,7 +2139,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1762,7 +2152,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1775,7 +2165,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1788,7 +2178,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>7</v>
       </c>
@@ -1801,7 +2191,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>8</v>
       </c>
@@ -1814,7 +2204,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1825,7 +2215,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1838,7 +2228,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1851,7 +2241,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1864,7 +2254,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1877,7 +2267,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>5</v>
       </c>
@@ -1890,7 +2280,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>6</v>
       </c>
@@ -1903,7 +2293,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>7</v>
       </c>
@@ -1916,7 +2306,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>8</v>
       </c>
@@ -1929,7 +2319,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -1940,7 +2330,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1953,7 +2343,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1966,7 +2356,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1979,7 +2369,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1992,7 +2382,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2005,7 +2395,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>6</v>
       </c>
@@ -2018,7 +2408,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>7</v>
       </c>
@@ -2031,7 +2421,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>8</v>
       </c>
@@ -2058,22 +2448,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2093,7 +2483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2104,7 +2494,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2124,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2137,7 +2527,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2150,7 +2540,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2163,7 +2553,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2176,7 +2566,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2189,7 +2579,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2202,7 +2592,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2215,7 +2605,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2226,7 +2616,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2239,7 +2629,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2252,7 +2642,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2265,7 +2655,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2278,7 +2668,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>5</v>
       </c>
@@ -2291,7 +2681,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>6</v>
       </c>
@@ -2304,7 +2694,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>7</v>
       </c>
@@ -2317,7 +2707,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>8</v>
       </c>
@@ -2330,7 +2720,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -2341,7 +2731,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2354,7 +2744,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2367,7 +2757,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2380,7 +2770,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>4</v>
       </c>
@@ -2393,7 +2783,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2406,7 +2796,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>6</v>
       </c>
@@ -2419,7 +2809,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>7</v>
       </c>
@@ -2432,7 +2822,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>8</v>
       </c>
@@ -2445,7 +2835,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -2456,7 +2846,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2469,7 +2859,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2</v>
       </c>
@@ -2482,7 +2872,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2495,7 +2885,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2508,7 +2898,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>5</v>
       </c>
@@ -2521,7 +2911,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>6</v>
       </c>
@@ -2534,7 +2924,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>7</v>
       </c>
@@ -2547,7 +2937,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>8</v>
       </c>
@@ -2560,7 +2950,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -2571,7 +2961,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2584,7 +2974,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>2</v>
       </c>
@@ -2597,7 +2987,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2610,7 +3000,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>4</v>
       </c>
@@ -2623,7 +3013,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2636,7 +3026,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>6</v>
       </c>
@@ -2649,7 +3039,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>7</v>
       </c>
@@ -2662,7 +3052,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>8</v>
       </c>
@@ -2689,22 +3079,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2724,7 +3114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2735,7 +3125,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2761,10 +3151,10 @@
       </c>
       <c r="L3">
         <f>SUM(G:G)</f>
-        <v>402751</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2505067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2786,7 +3176,7 @@
         <v>67389</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2808,7 +3198,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2830,7 +3220,7 @@
         <v>67292</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2852,7 +3242,7 @@
         <v>66865</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2874,7 +3264,7 @@
         <v>67079</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2896,7 +3286,7 @@
         <v>67246</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2918,7 +3308,7 @@
         <v>66880</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2929,111 +3319,183 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>253</v>
       </c>
       <c r="F12">
         <f>D12+C12*1000+B12*60000+IF(E12="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" t="str">
+        <v>90253</v>
+      </c>
+      <c r="G12">
         <f>IF(OR(MIN(F$12:F$19)=F12,MAX(F$12:F$19)=F12),"",F12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>90253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>984</v>
+      </c>
       <c r="F13">
         <f t="shared" ref="F13:F19" si="2">D13+C13*1000+B13*60000+IF(E13="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" t="str">
+        <v>89984</v>
+      </c>
+      <c r="G13">
         <f t="shared" ref="G13:G19" si="3">IF(OR(MIN(F$12:F$19)=F13,MAX(F$12:F$19)=F13),"",F13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>89984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>272</v>
+      </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14" t="str">
+        <v>90272</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>90272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>4</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>901</v>
+      </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" t="str">
+        <v>89901</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>89901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>5</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>952</v>
+      </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" t="str">
+        <v>89952</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>89952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>6</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>963</v>
+      </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G17" t="str">
+        <v>89963</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>89963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>7</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>824</v>
+      </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>89824</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>8</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>594</v>
+      </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90594</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -3044,111 +3506,183 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>35</v>
+      </c>
+      <c r="D21">
+        <v>342</v>
       </c>
       <c r="F21">
         <f>D21+C21*1000+B21*60000+IF(E21="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" t="str">
+        <v>95342</v>
+      </c>
+      <c r="G21">
         <f>IF(OR(MIN(F$21:F$28)=F21,MAX(F$21:F$28)=F21),"",F21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>95342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>2</v>
       </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>253</v>
+      </c>
       <c r="F22">
         <f t="shared" ref="F22:F28" si="4">D22+C22*1000+B22*60000+IF(E22="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" t="str">
+        <v>95253</v>
+      </c>
+      <c r="G22">
         <f t="shared" ref="G22:G28" si="5">IF(OR(MIN(F$21:F$28)=F22,MAX(F$21:F$28)=F22),"",F22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>95253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>3</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>832</v>
+      </c>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G23" t="str">
+        <v>95832</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>95832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>4</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>974</v>
+      </c>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>94974</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>5</v>
       </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>160</v>
+      </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>96160</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>6</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>529</v>
+      </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G26" t="str">
+        <v>95529</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>95529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>7</v>
       </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>916</v>
+      </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G27" t="str">
+        <v>95916</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>95916</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>8</v>
       </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>124</v>
+      </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G28" t="str">
+        <v>95124</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>95124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -3159,111 +3693,183 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>1</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>440</v>
       </c>
       <c r="F30">
         <f>D30+C30*1000+B30*60000+IF(E30="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" t="str">
+        <v>91440</v>
+      </c>
+      <c r="G30">
         <f>IF(OR(MIN(F$30:F$37)=F30,MAX(F$30:F$37)=F30),"",F30)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>91440</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2</v>
       </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>31</v>
+      </c>
+      <c r="D31">
+        <v>299</v>
+      </c>
       <c r="F31">
         <f t="shared" ref="F31:F37" si="6">D31+C31*1000+B31*60000+IF(E31="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" t="str">
+        <v>91299</v>
+      </c>
+      <c r="G31">
         <f t="shared" ref="G31:G37" si="7">IF(OR(MIN(F$30:F$37)=F31,MAX(F$30:F$37)=F31),"",F31)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>91299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>3</v>
       </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>935</v>
+      </c>
       <c r="F32">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>91935</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>4</v>
       </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>730</v>
+      </c>
       <c r="F33">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>90730</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>5</v>
       </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <v>31</v>
+      </c>
       <c r="F34">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G34" t="str">
+        <v>91031</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>91031</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>6</v>
       </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>31</v>
+      </c>
+      <c r="D35">
+        <v>286</v>
+      </c>
       <c r="F35">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G35" t="str">
+        <v>91286</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>91286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>7</v>
       </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>31</v>
+      </c>
+      <c r="D36">
+        <v>226</v>
+      </c>
       <c r="F36">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G36" t="str">
+        <v>91226</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>91226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>8</v>
       </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>31</v>
+      </c>
+      <c r="D37">
+        <v>230</v>
+      </c>
       <c r="F37">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G37" t="str">
+        <v>91230</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>91230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -3274,108 +3880,180 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>1</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>446</v>
       </c>
       <c r="F39">
         <f>D39+C39*1000+B39*60000+IF(E39="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G39" t="str">
+        <v>73446</v>
+      </c>
+      <c r="G39">
         <f>IF(OR(MIN(F$39:F$46)=F39,MAX(F$39:F$46)=F39),"",F39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+        <v>73446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>2</v>
       </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>406</v>
+      </c>
       <c r="F40">
         <f t="shared" ref="F40:F46" si="8">D40+C40*1000+B40*60000+IF(E40="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" t="str">
+        <v>73406</v>
+      </c>
+      <c r="G40">
         <f t="shared" ref="G40:G46" si="9">IF(OR(MIN(F$39:F$46)=F40,MAX(F$39:F$46)=F40),"",F40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>73406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>3</v>
       </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>832</v>
+      </c>
       <c r="F41">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>73832</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>4</v>
       </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>765</v>
+      </c>
       <c r="F42">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G42" t="str">
+        <v>73765</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+        <v>73765</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>5</v>
       </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>675</v>
+      </c>
       <c r="F43">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G43" t="str">
+        <v>73675</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+        <v>73675</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>6</v>
       </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>750</v>
+      </c>
       <c r="F44">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G44" t="str">
+        <v>73750</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+        <v>73750</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>7</v>
       </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>371</v>
+      </c>
       <c r="F45">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>73371</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>8</v>
       </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>441</v>
+      </c>
       <c r="F46">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G46" t="str">
+        <v>73441</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="9"/>
-        <v/>
+        <v>73441</v>
       </c>
     </row>
   </sheetData>
@@ -3392,22 +4070,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3427,7 +4105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3438,7 +4116,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3470,7 +4148,7 @@
         <v>2509747</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3492,7 +4170,7 @@
         <v>67031</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3514,7 +4192,7 @@
         <v>67328</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3536,7 +4214,7 @@
         <v>67146</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3558,7 +4236,7 @@
         <v>66696</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3580,7 +4258,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3602,7 +4280,7 @@
         <v>66735</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3624,7 +4302,7 @@
         <v>66923</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3635,7 +4313,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3657,7 +4335,7 @@
         <v>90635</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3679,7 +4357,7 @@
         <v>90521</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3701,7 +4379,7 @@
         <v>90395</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>4</v>
       </c>
@@ -3723,7 +4401,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>5</v>
       </c>
@@ -3745,7 +4423,7 @@
         <v>90420</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>6</v>
       </c>
@@ -3770,7 +4448,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>7</v>
       </c>
@@ -3792,7 +4470,7 @@
         <v>90158</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>8</v>
       </c>
@@ -3814,7 +4492,7 @@
         <v>90030</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -3825,7 +4503,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3847,7 +4525,7 @@
         <v>95325</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3872,7 +4550,7 @@
         <v>94974</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>3</v>
       </c>
@@ -3894,7 +4572,7 @@
         <v>95001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>4</v>
       </c>
@@ -3916,7 +4594,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>5</v>
       </c>
@@ -3938,7 +4616,7 @@
         <v>95236</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>6</v>
       </c>
@@ -3963,7 +4641,7 @@
         <v>95868</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>7</v>
       </c>
@@ -3985,7 +4663,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>8</v>
       </c>
@@ -4007,7 +4685,7 @@
         <v>95125</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -4018,7 +4696,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4043,7 +4721,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2</v>
       </c>
@@ -4065,7 +4743,7 @@
         <v>91127</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4087,7 +4765,7 @@
         <v>91020</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4109,7 +4787,7 @@
         <v>91010</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>5</v>
       </c>
@@ -4134,7 +4812,7 @@
         <v>96237</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>6</v>
       </c>
@@ -4159,7 +4837,7 @@
         <v>96007</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>7</v>
       </c>
@@ -4181,7 +4859,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>8</v>
       </c>
@@ -4203,7 +4881,7 @@
         <v>91048</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -4214,7 +4892,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>1</v>
       </c>
@@ -4236,7 +4914,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>2</v>
       </c>
@@ -4258,7 +4936,7 @@
         <v>72995</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>3</v>
       </c>
@@ -4280,7 +4958,7 @@
         <v>73121</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>4</v>
       </c>
@@ -4302,7 +4980,7 @@
         <v>72715</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>5</v>
       </c>
@@ -4324,7 +5002,7 @@
         <v>72638</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>6</v>
       </c>
@@ -4346,7 +5024,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>7</v>
       </c>
@@ -4368,7 +5046,7 @@
         <v>73359</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>8</v>
       </c>
@@ -4407,22 +5085,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4442,7 +5120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4453,7 +5131,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4473,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4486,7 +5164,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4499,7 +5177,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4512,7 +5190,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4525,7 +5203,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4538,7 +5216,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4551,7 +5229,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4564,7 +5242,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -4575,7 +5253,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4588,7 +5266,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2</v>
       </c>
@@ -4601,7 +5279,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4614,7 +5292,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>4</v>
       </c>
@@ -4627,7 +5305,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>5</v>
       </c>
@@ -4640,7 +5318,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>6</v>
       </c>
@@ -4653,7 +5331,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>7</v>
       </c>
@@ -4666,7 +5344,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>8</v>
       </c>
@@ -4679,7 +5357,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -4690,7 +5368,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4703,7 +5381,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>2</v>
       </c>
@@ -4716,7 +5394,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4729,7 +5407,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>4</v>
       </c>
@@ -4742,7 +5420,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>5</v>
       </c>
@@ -4755,7 +5433,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>6</v>
       </c>
@@ -4768,7 +5446,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>7</v>
       </c>
@@ -4781,7 +5459,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>8</v>
       </c>
@@ -4794,7 +5472,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -4805,7 +5483,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4818,7 +5496,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2</v>
       </c>
@@ -4831,7 +5509,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4844,7 +5522,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4857,7 +5535,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>5</v>
       </c>
@@ -4870,7 +5548,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>6</v>
       </c>
@@ -4883,7 +5561,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>7</v>
       </c>
@@ -4896,7 +5574,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>8</v>
       </c>
@@ -4909,7 +5587,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -4920,7 +5598,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>1</v>
       </c>
@@ -4933,7 +5611,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>2</v>
       </c>
@@ -4946,7 +5624,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>3</v>
       </c>
@@ -4959,7 +5637,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>4</v>
       </c>
@@ -4972,7 +5650,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>5</v>
       </c>
@@ -4985,7 +5663,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>6</v>
       </c>
@@ -4998,7 +5676,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>7</v>
       </c>
@@ -5011,7 +5689,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>8</v>
       </c>
@@ -5038,22 +5716,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5073,7 +5751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5084,7 +5762,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5104,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5117,7 +5795,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5130,7 +5808,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5143,7 +5821,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5156,7 +5834,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5169,7 +5847,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5182,7 +5860,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5195,7 +5873,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -5206,7 +5884,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5219,7 +5897,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2</v>
       </c>
@@ -5232,7 +5910,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5245,7 +5923,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>4</v>
       </c>
@@ -5258,7 +5936,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>5</v>
       </c>
@@ -5271,7 +5949,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>6</v>
       </c>
@@ -5284,7 +5962,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>7</v>
       </c>
@@ -5297,7 +5975,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>8</v>
       </c>
@@ -5310,7 +5988,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -5321,7 +5999,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5334,7 +6012,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>2</v>
       </c>
@@ -5347,7 +6025,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5360,7 +6038,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>4</v>
       </c>
@@ -5373,7 +6051,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>5</v>
       </c>
@@ -5386,7 +6064,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>6</v>
       </c>
@@ -5399,7 +6077,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>7</v>
       </c>
@@ -5412,7 +6090,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>8</v>
       </c>
@@ -5425,7 +6103,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -5436,7 +6114,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>1</v>
       </c>
@@ -5449,7 +6127,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2</v>
       </c>
@@ -5462,7 +6140,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>3</v>
       </c>
@@ -5475,7 +6153,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>4</v>
       </c>
@@ -5488,7 +6166,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>5</v>
       </c>
@@ -5501,7 +6179,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>6</v>
       </c>
@@ -5514,7 +6192,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>7</v>
       </c>
@@ -5527,7 +6205,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>8</v>
       </c>
@@ -5540,7 +6218,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -5551,7 +6229,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>1</v>
       </c>
@@ -5564,7 +6242,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>2</v>
       </c>
@@ -5577,7 +6255,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>3</v>
       </c>
@@ -5590,7 +6268,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>4</v>
       </c>
@@ -5603,7 +6281,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>5</v>
       </c>
@@ -5616,7 +6294,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>6</v>
       </c>
@@ -5629,7 +6307,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>7</v>
       </c>
@@ -5642,7 +6320,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>8</v>
       </c>
@@ -5669,22 +6347,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5704,7 +6382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5715,7 +6393,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5735,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5748,7 +6426,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5761,7 +6439,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5774,7 +6452,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5787,7 +6465,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5800,7 +6478,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5813,7 +6491,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5826,7 +6504,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -5837,7 +6515,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5850,7 +6528,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2</v>
       </c>
@@ -5863,7 +6541,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5876,7 +6554,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>4</v>
       </c>
@@ -5889,7 +6567,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>5</v>
       </c>
@@ -5902,7 +6580,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>6</v>
       </c>
@@ -5915,7 +6593,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>7</v>
       </c>
@@ -5928,7 +6606,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>8</v>
       </c>
@@ -5941,7 +6619,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -5952,7 +6630,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5965,7 +6643,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>2</v>
       </c>
@@ -5978,7 +6656,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5991,7 +6669,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>4</v>
       </c>
@@ -6004,7 +6682,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>5</v>
       </c>
@@ -6017,7 +6695,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>6</v>
       </c>
@@ -6030,7 +6708,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>7</v>
       </c>
@@ -6043,7 +6721,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>8</v>
       </c>
@@ -6056,7 +6734,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -6067,7 +6745,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>1</v>
       </c>
@@ -6080,7 +6758,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2</v>
       </c>
@@ -6093,7 +6771,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>3</v>
       </c>
@@ -6106,7 +6784,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>4</v>
       </c>
@@ -6119,7 +6797,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>5</v>
       </c>
@@ -6132,7 +6810,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>6</v>
       </c>
@@ -6145,7 +6823,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>7</v>
       </c>
@@ -6158,7 +6836,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>8</v>
       </c>
@@ -6171,7 +6849,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -6182,7 +6860,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>1</v>
       </c>
@@ -6195,7 +6873,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>2</v>
       </c>
@@ -6208,7 +6886,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>3</v>
       </c>
@@ -6221,7 +6899,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>4</v>
       </c>
@@ -6234,7 +6912,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>5</v>
       </c>
@@ -6247,7 +6925,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>6</v>
       </c>
@@ -6260,7 +6938,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>7</v>
       </c>
@@ -6273,7 +6951,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>8</v>
       </c>
@@ -6300,22 +6978,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6335,7 +7013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -6346,7 +7024,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6366,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6379,7 +7057,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6392,7 +7070,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6405,7 +7083,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6418,7 +7096,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6431,7 +7109,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6444,7 +7122,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6457,7 +7135,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -6468,7 +7146,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>1</v>
       </c>
@@ -6481,7 +7159,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6494,7 +7172,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
@@ -6507,7 +7185,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>4</v>
       </c>
@@ -6520,7 +7198,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>5</v>
       </c>
@@ -6533,7 +7211,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>6</v>
       </c>
@@ -6546,7 +7224,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>7</v>
       </c>
@@ -6559,7 +7237,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>8</v>
       </c>
@@ -6572,7 +7250,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -6583,7 +7261,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6596,7 +7274,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>2</v>
       </c>
@@ -6609,7 +7287,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>3</v>
       </c>
@@ -6622,7 +7300,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>4</v>
       </c>
@@ -6635,7 +7313,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>5</v>
       </c>
@@ -6648,7 +7326,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>6</v>
       </c>
@@ -6661,7 +7339,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>7</v>
       </c>
@@ -6674,7 +7352,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>8</v>
       </c>
@@ -6687,7 +7365,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -6698,7 +7376,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>1</v>
       </c>
@@ -6711,7 +7389,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2</v>
       </c>
@@ -6724,7 +7402,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>3</v>
       </c>
@@ -6737,7 +7415,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>4</v>
       </c>
@@ -6750,7 +7428,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>5</v>
       </c>
@@ -6763,7 +7441,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>6</v>
       </c>
@@ -6776,7 +7454,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>7</v>
       </c>
@@ -6789,7 +7467,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>8</v>
       </c>
@@ -6802,7 +7480,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -6813,7 +7491,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>1</v>
       </c>
@@ -6826,7 +7504,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>2</v>
       </c>
@@ -6839,7 +7517,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>3</v>
       </c>
@@ -6852,7 +7530,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>4</v>
       </c>
@@ -6865,7 +7543,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>5</v>
       </c>
@@ -6878,7 +7556,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>6</v>
       </c>
@@ -6891,7 +7569,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>7</v>
       </c>
@@ -6904,7 +7582,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>8</v>
       </c>
@@ -6931,22 +7609,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6966,7 +7644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -6977,13 +7655,22 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>505</v>
       </c>
       <c r="F3">
         <f>D3+C3*1000+B3*60000+IF(E3="X",5000,0)</f>
-        <v>0</v>
+        <v>68505</v>
       </c>
       <c r="G3" t="str">
         <f>IF(OR(MIN(F$3:F$10)=F3,MAX(F$3:F$10)=F3),"",F3)</f>
@@ -6994,101 +7681,164 @@
       </c>
       <c r="L3">
         <f>SUM(G:G)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>408800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
       <c r="F4">
         <f t="shared" ref="F4:F10" si="0">D4+C4*1000+B4*60000+IF(E4="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" t="str">
+        <v>68050</v>
+      </c>
+      <c r="G4">
         <f t="shared" ref="G4:G10" si="1">IF(OR(MIN(F$3:F$10)=F4,MAX(F$3:F$10)=F4),"",F4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>68050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>838</v>
+      </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" t="str">
+        <v>67838</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>67838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>780</v>
+      </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67780</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>219</v>
+      </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" t="str">
+        <v>68219</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>68219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" t="str">
+        <v>68003</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>68003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>334</v>
+      </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" t="str">
+        <v>68334</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>68334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>356</v>
+      </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" t="str">
+        <v>68356</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>68356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -7099,7 +7849,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7112,7 +7862,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2</v>
       </c>
@@ -7125,7 +7875,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7138,7 +7888,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>4</v>
       </c>
@@ -7151,7 +7901,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>5</v>
       </c>
@@ -7164,7 +7914,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>6</v>
       </c>
@@ -7177,7 +7927,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>7</v>
       </c>
@@ -7190,7 +7940,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>8</v>
       </c>
@@ -7203,7 +7953,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -7214,7 +7964,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1</v>
       </c>
@@ -7227,7 +7977,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>2</v>
       </c>
@@ -7240,7 +7990,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>3</v>
       </c>
@@ -7253,7 +8003,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>4</v>
       </c>
@@ -7266,7 +8016,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>5</v>
       </c>
@@ -7279,7 +8029,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>6</v>
       </c>
@@ -7292,7 +8042,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>7</v>
       </c>
@@ -7305,7 +8055,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>8</v>
       </c>
@@ -7318,7 +8068,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -7329,7 +8079,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>1</v>
       </c>
@@ -7342,7 +8092,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2</v>
       </c>
@@ -7355,7 +8105,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>3</v>
       </c>
@@ -7368,7 +8118,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>4</v>
       </c>
@@ -7381,7 +8131,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>5</v>
       </c>
@@ -7394,7 +8144,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>6</v>
       </c>
@@ -7407,7 +8157,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>7</v>
       </c>
@@ -7420,7 +8170,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>8</v>
       </c>
@@ -7433,7 +8183,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -7444,7 +8194,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>1</v>
       </c>
@@ -7457,7 +8207,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>2</v>
       </c>
@@ -7470,7 +8220,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>3</v>
       </c>
@@ -7483,7 +8233,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>4</v>
       </c>
@@ -7496,7 +8246,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>5</v>
       </c>
@@ -7509,7 +8259,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>6</v>
       </c>
@@ -7522,7 +8272,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>7</v>
       </c>
@@ -7535,7 +8285,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>8</v>
       </c>

--- a/F1/Tempi.xlsx
+++ b/F1/Tempi.xlsx
@@ -23,19 +23,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Complessivo!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="36">
   <si>
     <t>AndreaCadorna</t>
   </si>
@@ -114,6 +106,36 @@
   <si>
     <t>X</t>
   </si>
+  <si>
+    <t>Leonardo Coluccini</t>
+  </si>
+  <si>
+    <t>Carmine Raiola</t>
+  </si>
+  <si>
+    <t>Matteo Bastianello</t>
+  </si>
+  <si>
+    <t>Giuseppe Ciferri</t>
+  </si>
+  <si>
+    <t>Andrea Cadorna</t>
+  </si>
+  <si>
+    <t>Fabrizio Gavina</t>
+  </si>
+  <si>
+    <t>Nicholas Dragoni</t>
+  </si>
+  <si>
+    <t>Giovanni Ferrieri</t>
+  </si>
+  <si>
+    <t>Antonio Caldararo</t>
+  </si>
+  <si>
+    <t>Pietro Politi</t>
+  </si>
 </sst>
 </file>
 
@@ -173,14 +195,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -469,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="K2" sqref="K2:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -481,7 +495,7 @@
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -492,254 +506,284 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <f ca="1">INDIRECT(A2&amp;"!L3")</f>
+        <f t="shared" ref="B2:B11" ca="1" si="0">INDIRECT(A2&amp;"!L3")</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f ca="1">FLOOR(B2/60000,1)</f>
+        <f t="shared" ref="C2:C11" ca="1" si="1">FLOOR(B2/60000,1)</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f ca="1">FLOOR((B2-(C2*60000))/1000,1)</f>
+        <f t="shared" ref="D2:D11" ca="1" si="2">FLOOR((B2-(C2*60000))/1000,1)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f ca="1">B2-C2*60000-D2*1000</f>
+        <f t="shared" ref="E2:E11" ca="1" si="3">B2-C2*60000-D2*1000</f>
         <v>0</v>
       </c>
       <c r="F2" t="str">
-        <f ca="1">CONCATENATE(IF(C2&lt;10,"0",""), C2,":", IF(D2&lt;10,"0",""),D2,":",IF(E2&lt;100,IF(E2&lt;10,"00","0"),""),E2)</f>
+        <f t="shared" ref="F2:F11" ca="1" si="4">CONCATENATE(IF(C2&lt;10,"0",""), C2,":", IF(D2&lt;10,"0",""),D2,":",IF(E2&lt;100,IF(E2&lt;10,"00","0"),""),E2)</f>
         <v>00:00:000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <f ca="1">INDIRECT(A3&amp;"!L3")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="C3">
-        <f ca="1">FLOOR(B3/60000,1)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D3">
-        <f ca="1">FLOOR((B3-(C3*60000))/1000,1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E3">
-        <f ca="1">B3-C3*60000-D3*1000</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f ca="1">CONCATENATE(IF(C3&lt;10,"0",""), C3,":", IF(D3&lt;10,"0",""),D3,":",IF(E3&lt;100,IF(E3&lt;10,"00","0"),""),E3)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>00:00:000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <f ca="1">INDIRECT(A4&amp;"!L3")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="C4">
-        <f ca="1">FLOOR(B4/60000,1)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D4">
-        <f ca="1">FLOOR((B4-(C4*60000))/1000,1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f ca="1">B4-C4*60000-D4*1000</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F4" t="str">
-        <f ca="1">CONCATENATE(IF(C4&lt;10,"0",""), C4,":", IF(D4&lt;10,"0",""),D4,":",IF(E4&lt;100,IF(E4&lt;10,"00","0"),""),E4)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>00:00:000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <f ca="1">INDIRECT(A5&amp;"!L3")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="C5">
-        <f ca="1">FLOOR(B5/60000,1)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D5">
-        <f ca="1">FLOOR((B5-(C5*60000))/1000,1)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f ca="1">B5-C5*60000-D5*1000</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="F5" t="str">
-        <f ca="1">CONCATENATE(IF(C5&lt;10,"0",""), C5,":", IF(D5&lt;10,"0",""),D5,":",IF(E5&lt;100,IF(E5&lt;10,"00","0"),""),E5)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>00:00:000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <f ca="1">INDIRECT(A6&amp;"!L3")</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>408800</v>
       </c>
       <c r="C6">
-        <f ca="1">FLOOR(B6/60000,1)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="D6">
-        <f ca="1">FLOOR((B6-(C6*60000))/1000,1)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
       </c>
       <c r="E6">
-        <f ca="1">B6-C6*60000-D6*1000</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>800</v>
       </c>
       <c r="F6" t="str">
-        <f ca="1">CONCATENATE(IF(C6&lt;10,"0",""), C6,":", IF(D6&lt;10,"0",""),D6,":",IF(E6&lt;100,IF(E6&lt;10,"00","0"),""),E6)</f>
-        <v>00:00:000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <f t="shared" ca="1" si="4"/>
+        <v>06:48:800</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7">
-        <f ca="1">INDIRECT(A7&amp;"!L3")</f>
-        <v>408800</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2491495</v>
       </c>
       <c r="C7">
-        <f ca="1">FLOOR(B7/60000,1)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
       </c>
       <c r="D7">
-        <f ca="1">FLOOR((B7-(C7*60000))/1000,1)</f>
-        <v>48</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
       </c>
       <c r="E7">
-        <f ca="1">B7-C7*60000-D7*1000</f>
-        <v>800</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>495</v>
       </c>
       <c r="F7" t="str">
-        <f ca="1">CONCATENATE(IF(C7&lt;10,"0",""), C7,":", IF(D7&lt;10,"0",""),D7,":",IF(E7&lt;100,IF(E7&lt;10,"00","0"),""),E7)</f>
-        <v>06:48:800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <f t="shared" ca="1" si="4"/>
+        <v>41:31:495</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2505067</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>41:45:067</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2509747</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="3"/>
+        <v>747</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>41:49:747</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B8">
-        <f ca="1">INDIRECT(A8&amp;"!L3")</f>
-        <v>545341</v>
-      </c>
-      <c r="C8">
-        <f ca="1">FLOOR(B8/60000,1)</f>
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <f ca="1">FLOOR((B8-(C8*60000))/1000,1)</f>
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <f ca="1">B8-C8*60000-D8*1000</f>
-        <v>341</v>
-      </c>
-      <c r="F8" t="str">
-        <f ca="1">CONCATENATE(IF(C8&lt;10,"0",""), C8,":", IF(D8&lt;10,"0",""),D8,":",IF(E8&lt;100,IF(E8&lt;10,"00","0"),""),E8)</f>
-        <v>09:05:341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <f ca="1">INDIRECT(A9&amp;"!L3")</f>
-        <v>2491495</v>
-      </c>
-      <c r="C9">
-        <f ca="1">FLOOR(B9/60000,1)</f>
-        <v>41</v>
-      </c>
-      <c r="D9">
-        <f ca="1">FLOOR((B9-(C9*60000))/1000,1)</f>
-        <v>31</v>
-      </c>
-      <c r="E9">
-        <f ca="1">B9-C9*60000-D9*1000</f>
-        <v>495</v>
-      </c>
-      <c r="F9" t="str">
-        <f ca="1">CONCATENATE(IF(C9&lt;10,"0",""), C9,":", IF(D9&lt;10,"0",""),D9,":",IF(E9&lt;100,IF(E9&lt;10,"00","0"),""),E9)</f>
-        <v>41:31:495</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
       <c r="B10">
-        <f ca="1">INDIRECT(A10&amp;"!L3")</f>
-        <v>2505067</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2531474</v>
       </c>
       <c r="C10">
-        <f ca="1">FLOOR(B10/60000,1)</f>
-        <v>41</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
       </c>
       <c r="D10">
-        <f ca="1">FLOOR((B10-(C10*60000))/1000,1)</f>
-        <v>45</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
       </c>
       <c r="E10">
-        <f ca="1">B10-C10*60000-D10*1000</f>
-        <v>67</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>474</v>
       </c>
       <c r="F10" t="str">
-        <f ca="1">CONCATENATE(IF(C10&lt;10,"0",""), C10,":", IF(D10&lt;10,"0",""),D10,":",IF(E10&lt;100,IF(E10&lt;10,"00","0"),""),E10)</f>
-        <v>41:45:067</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <f t="shared" ca="1" si="4"/>
+        <v>42:11:474</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <f ca="1">INDIRECT(A11&amp;"!L3")</f>
-        <v>2509747</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2566694</v>
       </c>
       <c r="C11">
-        <f ca="1">FLOOR(B11/60000,1)</f>
-        <v>41</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
       </c>
       <c r="D11">
-        <f ca="1">FLOOR((B11-(C11*60000))/1000,1)</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
       </c>
       <c r="E11">
-        <f ca="1">B11-C11*60000-D11*1000</f>
-        <v>747</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>694</v>
       </c>
       <c r="F11" t="str">
-        <f ca="1">CONCATENATE(IF(C11&lt;10,"0",""), C11,":", IF(D11&lt;10,"0",""),D11,":",IF(E11&lt;100,IF(E11&lt;10,"00","0"),""),E11)</f>
-        <v>41:49:747</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>42:46:694</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1748,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D19"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1795,42 +1839,69 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>428</v>
+      </c>
       <c r="F3">
         <f>D3+C3*1000+B3*60000+IF(E3="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" t="str">
+        <v>67428</v>
+      </c>
+      <c r="G3">
         <f>IF(OR(MIN(F$3:F$10)=F3,MAX(F$3:F$10)=F3),"",F3)</f>
-        <v/>
+        <v>67428</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
       </c>
       <c r="L3">
         <f>SUM(G:G)</f>
-        <v>545341</v>
+        <v>2531474</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>351</v>
+      </c>
       <c r="F4">
         <f t="shared" ref="F4:F10" si="0">D4+C4*1000+B4*60000+IF(E4="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" t="str">
+        <v>67351</v>
+      </c>
+      <c r="G4">
         <f t="shared" ref="G4:G10" si="1">IF(OR(MIN(F$3:F$10)=F4,MAX(F$3:F$10)=F4),"",F4)</f>
-        <v/>
+        <v>67351</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>54</v>
+      </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67054</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
@@ -1841,9 +1912,18 @@
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>799</v>
+      </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67799</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
@@ -1854,52 +1934,88 @@
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>250</v>
+      </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" t="str">
+        <v>67250</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v/>
+        <v>67250</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>75</v>
+      </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" t="str">
+        <v>67075</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v/>
+        <v>67075</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>343</v>
+      </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" t="str">
+        <v>67343</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
-        <v/>
+        <v>67343</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>566</v>
+      </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" t="str">
+        <v>67566</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v/>
+        <v>67566</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2104,9 +2220,18 @@
       <c r="A21">
         <v>1</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>734</v>
+      </c>
       <c r="F21">
         <f>D21+C21*1000+B21*60000+IF(E21="X",5000,0)</f>
-        <v>0</v>
+        <v>97734</v>
       </c>
       <c r="G21" t="str">
         <f>IF(OR(MIN(F$21:F$28)=F21,MAX(F$21:F$28)=F21),"",F21)</f>
@@ -2117,87 +2242,150 @@
       <c r="A22">
         <v>2</v>
       </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>37</v>
+      </c>
+      <c r="D22">
+        <v>363</v>
+      </c>
       <c r="F22">
         <f t="shared" ref="F22:F28" si="4">D22+C22*1000+B22*60000+IF(E22="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" t="str">
+        <v>97363</v>
+      </c>
+      <c r="G22">
         <f t="shared" ref="G22:G28" si="5">IF(OR(MIN(F$21:F$28)=F22,MAX(F$21:F$28)=F22),"",F22)</f>
-        <v/>
+        <v>97363</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
         <v>3</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>37</v>
+      </c>
+      <c r="D23">
+        <v>564</v>
+      </c>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G23" t="str">
+        <v>97564</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="5"/>
-        <v/>
+        <v>97564</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
         <v>4</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>887</v>
+      </c>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G24" t="str">
+        <v>96887</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="5"/>
-        <v/>
+        <v>96887</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
         <v>5</v>
       </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>697</v>
+      </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G25" t="str">
+        <v>96697</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="5"/>
-        <v/>
+        <v>96697</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
         <v>6</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>261</v>
+      </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G26" t="str">
+        <v>96261</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="5"/>
-        <v/>
+        <v>96261</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
         <v>7</v>
       </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>593</v>
+      </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G27" t="str">
+        <v>96593</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="5"/>
-        <v/>
+        <v>96593</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
         <v>8</v>
       </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>332</v>
+      </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>95332</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="5"/>
@@ -2219,9 +2407,18 @@
       <c r="A30">
         <v>1</v>
       </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>973</v>
+      </c>
       <c r="F30">
         <f>D30+C30*1000+B30*60000+IF(E30="X",5000,0)</f>
-        <v>0</v>
+        <v>90973</v>
       </c>
       <c r="G30" t="str">
         <f>IF(OR(MIN(F$30:F$37)=F30,MAX(F$30:F$37)=F30),"",F30)</f>
@@ -2232,9 +2429,18 @@
       <c r="A31">
         <v>2</v>
       </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>323</v>
+      </c>
       <c r="F31">
         <f t="shared" ref="F31:F37" si="6">D31+C31*1000+B31*60000+IF(E31="X",5000,0)</f>
-        <v>0</v>
+        <v>92323</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" ref="G31:G37" si="7">IF(OR(MIN(F$30:F$37)=F31,MAX(F$30:F$37)=F31),"",F31)</f>
@@ -2245,78 +2451,132 @@
       <c r="A32">
         <v>3</v>
       </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>608</v>
+      </c>
       <c r="F32">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G32" t="str">
+        <v>91608</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="7"/>
-        <v/>
+        <v>91608</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
         <v>4</v>
       </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>595</v>
+      </c>
       <c r="F33">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G33" t="str">
+        <v>91595</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="7"/>
-        <v/>
+        <v>91595</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
         <v>5</v>
       </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <v>690</v>
+      </c>
       <c r="F34">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G34" t="str">
+        <v>91690</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>91690</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
         <v>6</v>
       </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>31</v>
+      </c>
+      <c r="D35">
+        <v>692</v>
+      </c>
       <c r="F35">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G35" t="str">
+        <v>91692</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="7"/>
-        <v/>
+        <v>91692</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
         <v>7</v>
       </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>31</v>
+      </c>
+      <c r="D36">
+        <v>299</v>
+      </c>
       <c r="F36">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G36" t="str">
+        <v>91299</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="7"/>
-        <v/>
+        <v>91299</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
         <v>8</v>
       </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>31</v>
+      </c>
+      <c r="D37">
+        <v>176</v>
+      </c>
       <c r="F37">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G37" t="str">
+        <v>91176</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="7"/>
-        <v/>
+        <v>91176</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2334,22 +2594,40 @@
       <c r="A39">
         <v>1</v>
       </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>235</v>
+      </c>
       <c r="F39">
         <f>D39+C39*1000+B39*60000+IF(E39="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G39" t="str">
+        <v>75235</v>
+      </c>
+      <c r="G39">
         <f>IF(OR(MIN(F$39:F$46)=F39,MAX(F$39:F$46)=F39),"",F39)</f>
-        <v/>
+        <v>75235</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
         <v>2</v>
       </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>710</v>
+      </c>
       <c r="F40">
         <f t="shared" ref="F40:F46" si="8">D40+C40*1000+B40*60000+IF(E40="X",5000,0)</f>
-        <v>0</v>
+        <v>77710</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" ref="G40:G46" si="9">IF(OR(MIN(F$39:F$46)=F40,MAX(F$39:F$46)=F40),"",F40)</f>
@@ -2360,74 +2638,128 @@
       <c r="A41">
         <v>3</v>
       </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>509</v>
+      </c>
       <c r="F41">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G41" t="str">
+        <v>76509</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="9"/>
-        <v/>
+        <v>76509</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
         <v>4</v>
       </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>379</v>
+      </c>
       <c r="F42">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G42" t="str">
+        <v>75379</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="9"/>
-        <v/>
+        <v>75379</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
         <v>5</v>
       </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>822</v>
+      </c>
       <c r="F43">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G43" t="str">
+        <v>74822</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="9"/>
-        <v/>
+        <v>74822</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
         <v>6</v>
       </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>806</v>
+      </c>
       <c r="F44">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G44" t="str">
+        <v>74806</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="9"/>
-        <v/>
+        <v>74806</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
         <v>7</v>
       </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>944</v>
+      </c>
       <c r="F45">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G45" t="str">
+        <v>74944</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="9"/>
-        <v/>
+        <v>74944</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
         <v>8</v>
       </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>672</v>
+      </c>
       <c r="F46">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>74672</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="9"/>
@@ -2451,8 +2783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2498,29 +2830,47 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>218</v>
+      </c>
       <c r="F3">
         <f>D3+C3*1000+B3*60000+IF(E3="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" t="str">
+        <v>69218</v>
+      </c>
+      <c r="G3">
         <f>IF(OR(MIN(F$3:F$10)=F3,MAX(F$3:F$10)=F3),"",F3)</f>
-        <v/>
+        <v>69218</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
       </c>
       <c r="L3">
         <f>SUM(G:G)</f>
-        <v>0</v>
+        <v>2566694</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>544</v>
+      </c>
       <c r="F4">
         <f t="shared" ref="F4:F10" si="0">D4+C4*1000+B4*60000+IF(E4="X",5000,0)</f>
-        <v>0</v>
+        <v>68544</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G10" si="1">IF(OR(MIN(F$3:F$10)=F4,MAX(F$3:F$10)=F4),"",F4)</f>
@@ -2531,74 +2881,128 @@
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>401</v>
+      </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" t="str">
+        <v>69401</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="1"/>
-        <v/>
+        <v>69401</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>842</v>
+      </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" t="str">
+        <v>69842</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="1"/>
-        <v/>
+        <v>69842</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" t="str">
+        <v>69060</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v/>
+        <v>69060</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>677</v>
+      </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" t="str">
+        <v>69677</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v/>
+        <v>69677</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>980</v>
+      </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" t="str">
+        <v>68980</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
-        <v/>
+        <v>68980</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>415</v>
+      </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72415</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -2620,9 +3024,18 @@
       <c r="A12">
         <v>1</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>96</v>
+      </c>
       <c r="F12">
         <f>D12+C12*1000+B12*60000+IF(E12="X",5000,0)</f>
-        <v>0</v>
+        <v>91096</v>
       </c>
       <c r="G12" t="str">
         <f>IF(OR(MIN(F$12:F$19)=F12,MAX(F$12:F$19)=F12),"",F12)</f>
@@ -2633,87 +3046,150 @@
       <c r="A13">
         <v>2</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>715</v>
+      </c>
       <c r="F13">
         <f t="shared" ref="F13:F19" si="2">D13+C13*1000+B13*60000+IF(E13="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" t="str">
+        <v>91715</v>
+      </c>
+      <c r="G13">
         <f t="shared" ref="G13:G19" si="3">IF(OR(MIN(F$12:F$19)=F13,MAX(F$12:F$19)=F13),"",F13)</f>
-        <v/>
+        <v>91715</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>114</v>
+      </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14" t="str">
+        <v>91114</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="3"/>
-        <v/>
+        <v>91114</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
         <v>4</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>437</v>
+      </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" t="str">
+        <v>91437</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="3"/>
-        <v/>
+        <v>91437</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
         <v>5</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>293</v>
+      </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" t="str">
+        <v>91293</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="3"/>
-        <v/>
+        <v>91293</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
         <v>6</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>448</v>
+      </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G17" t="str">
+        <v>91448</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="3"/>
-        <v/>
+        <v>91448</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
         <v>7</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>524</v>
+      </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G18" t="str">
+        <v>92524</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="3"/>
-        <v/>
+        <v>92524</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
         <v>8</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>78</v>
+      </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>93078</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="3"/>
@@ -2735,74 +3211,128 @@
       <c r="A21">
         <v>1</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>38</v>
+      </c>
+      <c r="D21">
+        <v>571</v>
+      </c>
       <c r="F21">
         <f>D21+C21*1000+B21*60000+IF(E21="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" t="str">
+        <v>98571</v>
+      </c>
+      <c r="G21">
         <f>IF(OR(MIN(F$21:F$28)=F21,MAX(F$21:F$28)=F21),"",F21)</f>
-        <v/>
+        <v>98571</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
         <v>2</v>
       </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>37</v>
+      </c>
+      <c r="D22">
+        <v>530</v>
+      </c>
       <c r="F22">
         <f t="shared" ref="F22:F28" si="4">D22+C22*1000+B22*60000+IF(E22="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" t="str">
+        <v>97530</v>
+      </c>
+      <c r="G22">
         <f t="shared" ref="G22:G28" si="5">IF(OR(MIN(F$21:F$28)=F22,MAX(F$21:F$28)=F22),"",F22)</f>
-        <v/>
+        <v>97530</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
         <v>3</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>37</v>
+      </c>
+      <c r="D23">
+        <v>303</v>
+      </c>
       <c r="F23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G23" t="str">
+        <v>97303</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="5"/>
-        <v/>
+        <v>97303</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
         <v>4</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>38</v>
+      </c>
+      <c r="D24">
+        <v>157</v>
+      </c>
       <c r="F24">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G24" t="str">
+        <v>98157</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="5"/>
-        <v/>
+        <v>98157</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
         <v>5</v>
       </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <v>441</v>
+      </c>
       <c r="F25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G25" t="str">
+        <v>97441</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="5"/>
-        <v/>
+        <v>97441</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
         <v>6</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>38</v>
+      </c>
+      <c r="D26">
+        <v>774</v>
+      </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98774</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="5"/>
@@ -2813,22 +3343,40 @@
       <c r="A27">
         <v>7</v>
       </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <v>218</v>
+      </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G27" t="str">
+        <v>97218</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="5"/>
-        <v/>
+        <v>97218</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
         <v>8</v>
       </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>36</v>
+      </c>
+      <c r="D28">
+        <v>832</v>
+      </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>96832</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="5"/>
@@ -2850,48 +3398,84 @@
       <c r="A30">
         <v>1</v>
       </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>33</v>
+      </c>
+      <c r="D30">
+        <v>206</v>
+      </c>
       <c r="F30">
         <f>D30+C30*1000+B30*60000+IF(E30="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" t="str">
+        <v>93206</v>
+      </c>
+      <c r="G30">
         <f>IF(OR(MIN(F$30:F$37)=F30,MAX(F$30:F$37)=F30),"",F30)</f>
-        <v/>
+        <v>93206</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
         <v>2</v>
       </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>458</v>
+      </c>
       <c r="F31">
         <f t="shared" ref="F31:F37" si="6">D31+C31*1000+B31*60000+IF(E31="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" t="str">
+        <v>92458</v>
+      </c>
+      <c r="G31">
         <f t="shared" ref="G31:G37" si="7">IF(OR(MIN(F$30:F$37)=F31,MAX(F$30:F$37)=F31),"",F31)</f>
-        <v/>
+        <v>92458</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
         <v>3</v>
       </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <v>531</v>
+      </c>
       <c r="F32">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G32" t="str">
+        <v>92531</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="7"/>
-        <v/>
+        <v>92531</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
         <v>4</v>
       </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>34</v>
+      </c>
+      <c r="D33">
+        <v>512</v>
+      </c>
       <c r="F33">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>94512</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="7"/>
@@ -2902,35 +3486,62 @@
       <c r="A34">
         <v>5</v>
       </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>464</v>
+      </c>
       <c r="F34">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G34" t="str">
+        <v>92464</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="7"/>
-        <v/>
+        <v>92464</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
         <v>6</v>
       </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <v>194</v>
+      </c>
       <c r="F35">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G35" t="str">
+        <v>93194</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="7"/>
-        <v/>
+        <v>93194</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
         <v>7</v>
       </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>32</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
       <c r="F36">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>92011</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="7"/>
@@ -2941,13 +3552,22 @@
       <c r="A37">
         <v>8</v>
       </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>32</v>
+      </c>
+      <c r="D37">
+        <v>977</v>
+      </c>
       <c r="F37">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G37" t="str">
+        <v>92977</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="7"/>
-        <v/>
+        <v>92977</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2965,35 +3585,62 @@
       <c r="A39">
         <v>1</v>
       </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>129</v>
+      </c>
       <c r="F39">
         <f>D39+C39*1000+B39*60000+IF(E39="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G39" t="str">
+        <v>77129</v>
+      </c>
+      <c r="G39">
         <f>IF(OR(MIN(F$39:F$46)=F39,MAX(F$39:F$46)=F39),"",F39)</f>
-        <v/>
+        <v>77129</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
         <v>2</v>
       </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>642</v>
+      </c>
       <c r="F40">
         <f t="shared" ref="F40:F46" si="8">D40+C40*1000+B40*60000+IF(E40="X",5000,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" t="str">
+        <v>75642</v>
+      </c>
+      <c r="G40">
         <f t="shared" ref="G40:G46" si="9">IF(OR(MIN(F$39:F$46)=F40,MAX(F$39:F$46)=F40),"",F40)</f>
-        <v/>
+        <v>75642</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
         <v>3</v>
       </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>229</v>
+      </c>
       <c r="F41">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>75229</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="9"/>
@@ -3004,48 +3651,84 @@
       <c r="A42">
         <v>4</v>
       </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>233</v>
+      </c>
       <c r="F42">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G42" t="str">
+        <v>76233</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="9"/>
-        <v/>
+        <v>76233</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
         <v>5</v>
       </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>234</v>
+      </c>
       <c r="F43">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G43" t="str">
+        <v>76234</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="9"/>
-        <v/>
+        <v>76234</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
         <v>6</v>
       </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>16</v>
+      </c>
+      <c r="D44">
+        <v>279</v>
+      </c>
       <c r="F44">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G44" t="str">
+        <v>76279</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="9"/>
-        <v/>
+        <v>76279</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
         <v>7</v>
       </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>56</v>
+      </c>
       <c r="F45">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>83056</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="9"/>
@@ -3056,13 +3739,22 @@
       <c r="A46">
         <v>8</v>
       </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>16</v>
+      </c>
+      <c r="D46">
+        <v>418</v>
+      </c>
       <c r="F46">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G46" t="str">
+        <v>76418</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="9"/>
-        <v/>
+        <v>76418</v>
       </c>
     </row>
   </sheetData>
